--- a/Project Wing/Model/Model - User.xlsx
+++ b/Project Wing/Model/Model - User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4A368-AA6A-440F-A7C1-A5083BC5070E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD5C1BE-0E80-4132-8C79-20C5791D65C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1643,7 +1644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$ZAR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2061,49 +2062,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2121,34 +2113,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16071,26 +16072,26 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="81.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="81.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16107,7 +16108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>4.7665550595238093</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>12902.4</v>
       </c>
@@ -16134,30 +16135,30 @@
         <v>1.5888516865079365</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A8" s="68" t="s">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
       <c r="U8" s="16" t="s">
         <v>77</v>
       </c>
@@ -16174,9 +16175,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
+    <row r="9" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -16233,11 +16234,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A10" s="66" t="s">
+    <row r="10" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -16294,11 +16295,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="90" thickBot="1">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:25" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -16357,11 +16358,11 @@
         <v>12902.4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
@@ -16420,11 +16421,11 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
@@ -16483,37 +16484,37 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="63">
         <v>50</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73">
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63">
         <v>100</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73">
+      <c r="J14" s="63"/>
+      <c r="K14" s="63">
         <v>50</v>
       </c>
-      <c r="L14" s="73"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="29">
         <v>100</v>
       </c>
-      <c r="N14" s="73">
+      <c r="N14" s="63">
         <v>10</v>
       </c>
-      <c r="O14" s="73"/>
-      <c r="P14" s="82"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
       <c r="U14" s="19" t="s">
         <v>108</v>
       </c>
@@ -16523,16 +16524,16 @@
       <c r="W14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="X14" s="78">
+      <c r="X14" s="53">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Y14" s="79"/>
-    </row>
-    <row r="15" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A15" s="66" t="s">
+      <c r="Y14" s="54"/>
+    </row>
+    <row r="15" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -16584,41 +16585,41 @@
       <c r="W15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="78">
+      <c r="X15" s="53">
         <v>11.55</v>
       </c>
-      <c r="Y15" s="79"/>
-    </row>
-    <row r="16" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A16" s="66" t="s">
+      <c r="Y15" s="54"/>
+    </row>
+    <row r="16" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="63">
         <v>0.5</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73">
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63">
         <v>0.8</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73">
+      <c r="J16" s="63"/>
+      <c r="K16" s="63">
         <v>0.75</v>
       </c>
-      <c r="L16" s="73"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="29">
         <v>0.8</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="63">
         <v>0.3</v>
       </c>
-      <c r="O16" s="73"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="30">
         <v>0.4</v>
       </c>
@@ -16638,25 +16639,25 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="63">
         <v>2.89</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="31">
         <v>0</v>
       </c>
@@ -16685,14 +16686,14 @@
         <v>938.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="59" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="29">
@@ -16750,12 +16751,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="39" thickBot="1">
-      <c r="A19" s="75"/>
+    <row r="19" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
       <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="31">
         <v>13.7</v>
       </c>
@@ -16804,17 +16805,17 @@
       <c r="W19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="81"/>
-    </row>
-    <row r="20" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A20" s="74" t="s">
+      <c r="X19" s="55"/>
+      <c r="Y19" s="56"/>
+    </row>
+    <row r="20" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="29">
@@ -16872,12 +16873,12 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A21" s="75"/>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
       <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="31">
         <v>36</v>
       </c>
@@ -16923,14 +16924,14 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A22" s="74" t="s">
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="59" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="29">
@@ -16974,12 +16975,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A23" s="75"/>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="58"/>
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="31">
         <v>2540</v>
       </c>
@@ -17020,23 +17021,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="63">
         <v>577.29999999999995</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="29">
         <v>173.3</v>
       </c>
@@ -17062,19 +17063,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A25" s="75"/>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="58"/>
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="73">
+      <c r="C25" s="60"/>
+      <c r="D25" s="63">
         <v>1732</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="31">
         <v>519.6</v>
       </c>
@@ -17100,13 +17101,13 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1"/>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1">
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
@@ -17126,7 +17127,7 @@
       <c r="O31" s="27"/>
       <c r="P31" s="28"/>
     </row>
-    <row r="32" spans="1:25" ht="26.25" thickBot="1">
+    <row r="32" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
         <v>6</v>
@@ -17168,7 +17169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="26.25" customHeight="1">
+    <row r="33" spans="3:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>123</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="34" spans="3:20">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>124</v>
       </c>
@@ -17282,84 +17283,84 @@
         <v>153.61500000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:20">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:20">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="3:20">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="3:20">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="3:20" ht="15.75" thickBot="1"/>
-    <row r="40" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C40" s="60" t="s">
+    <row r="39" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="58" t="s">
+      <c r="D40" s="75"/>
+      <c r="E40" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="J40" s="58" t="s">
+      <c r="J40" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="L40" s="58" t="s">
+      <c r="L40" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="M40" s="54" t="s">
+      <c r="M40" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="54" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="54" t="s">
+      <c r="P40" s="80"/>
+      <c r="Q40" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="54" t="s">
+      <c r="R40" s="80"/>
+      <c r="S40" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="T40" s="55"/>
-    </row>
-    <row r="41" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C41" s="61"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
+      <c r="T40" s="80"/>
+    </row>
+    <row r="41" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="70"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="49" t="s">
         <v>30</v>
       </c>
@@ -17385,7 +17386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="3:20" ht="15.75" thickBot="1">
+    <row r="42" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="37" t="s">
         <v>5</v>
       </c>
@@ -17414,25 +17415,25 @@
       <c r="L42" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="M42" s="56" t="s">
+      <c r="M42" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="56" t="s">
+      <c r="N42" s="82"/>
+      <c r="O42" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="56" t="s">
+      <c r="P42" s="82"/>
+      <c r="Q42" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="R42" s="57"/>
-      <c r="S42" s="56" t="s">
+      <c r="R42" s="82"/>
+      <c r="S42" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="T42" s="57"/>
-    </row>
-    <row r="43" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C43" s="61" t="s">
+      <c r="T42" s="82"/>
+    </row>
+    <row r="43" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="70" t="s">
         <v>153</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -17450,16 +17451,16 @@
       <c r="H43" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="72" t="s">
         <v>195</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K43" s="72">
         <v>0.5</v>
       </c>
-      <c r="L43" s="53" t="s">
+      <c r="L43" s="72" t="s">
         <v>206</v>
       </c>
       <c r="M43" s="42" t="s">
@@ -17480,15 +17481,15 @@
       <c r="R43" s="39">
         <v>2117</v>
       </c>
-      <c r="S43" s="53" t="s">
+      <c r="S43" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="T43" s="53" t="s">
+      <c r="T43" s="72" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C44" s="61"/>
+    <row r="44" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="70"/>
       <c r="D44" s="39" t="s">
         <v>7</v>
       </c>
@@ -17504,12 +17505,12 @@
       <c r="H44" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="I44" s="53"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
       <c r="M44" s="42" t="s">
         <v>212</v>
       </c>
@@ -17528,11 +17529,11 @@
       <c r="R44" s="39">
         <v>2509</v>
       </c>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-    </row>
-    <row r="45" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C45" s="61"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+    </row>
+    <row r="45" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="70"/>
       <c r="D45" s="39" t="s">
         <v>154</v>
       </c>
@@ -17548,12 +17549,12 @@
       <c r="H45" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="I45" s="53"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
       <c r="M45" s="42" t="s">
         <v>213</v>
       </c>
@@ -17572,11 +17573,11 @@
       <c r="R45" s="39">
         <v>1317</v>
       </c>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-    </row>
-    <row r="46" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C46" s="61"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+    </row>
+    <row r="46" spans="3:20" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="70"/>
       <c r="D46" s="39" t="s">
         <v>155</v>
       </c>
@@ -17592,12 +17593,12 @@
       <c r="H46" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="I46" s="53"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
       <c r="M46" s="42" t="s">
         <v>214</v>
       </c>
@@ -17616,11 +17617,11 @@
       <c r="R46" s="39">
         <v>1542</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-    </row>
-    <row r="47" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C47" s="61"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+    </row>
+    <row r="47" spans="3:20" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="70"/>
       <c r="D47" s="39" t="s">
         <v>156</v>
       </c>
@@ -17636,12 +17637,12 @@
       <c r="H47" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="53"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="48">
         <v>382086</v>
       </c>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
       <c r="M47" s="42" t="s">
         <v>215</v>
       </c>
@@ -17660,11 +17661,11 @@
       <c r="R47" s="39">
         <v>741</v>
       </c>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-    </row>
-    <row r="48" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C48" s="61"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+    </row>
+    <row r="48" spans="3:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="70"/>
       <c r="D48" s="39" t="s">
         <v>8</v>
       </c>
@@ -17680,16 +17681,16 @@
       <c r="H48" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="I48" s="72" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K48" s="72">
         <v>0.8</v>
       </c>
-      <c r="L48" s="53"/>
+      <c r="L48" s="72"/>
       <c r="M48" s="42" t="s">
         <v>216</v>
       </c>
@@ -17715,8 +17716,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C49" s="61"/>
+    <row r="49" spans="3:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="70"/>
       <c r="D49" s="39" t="s">
         <v>9</v>
       </c>
@@ -17732,12 +17733,12 @@
       <c r="H49" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="I49" s="53"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
       <c r="M49" s="42" t="s">
         <v>217</v>
       </c>
@@ -17763,8 +17764,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="3:20" ht="30" thickBot="1">
-      <c r="C50" s="61"/>
+    <row r="50" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="70"/>
       <c r="D50" s="39" t="s">
         <v>10</v>
       </c>
@@ -17780,16 +17781,16 @@
       <c r="H50" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="72" t="s">
         <v>195</v>
       </c>
       <c r="J50" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="72">
         <v>0.75</v>
       </c>
-      <c r="L50" s="53"/>
+      <c r="L50" s="72"/>
       <c r="M50" s="42" t="s">
         <v>218</v>
       </c>
@@ -17815,8 +17816,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="3:20" ht="30" thickBot="1">
-      <c r="C51" s="61"/>
+    <row r="51" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="70"/>
       <c r="D51" s="39" t="s">
         <v>157</v>
       </c>
@@ -17832,12 +17833,12 @@
       <c r="H51" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="53"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="48">
         <v>9093</v>
       </c>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
       <c r="M51" s="42" t="s">
         <v>219</v>
       </c>
@@ -17863,8 +17864,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="3:20" ht="30" thickBot="1">
-      <c r="C52" s="61"/>
+    <row r="52" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="70"/>
       <c r="D52" s="39" t="s">
         <v>11</v>
       </c>
@@ -17917,8 +17918,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C53" s="61"/>
+    <row r="53" spans="3:20" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="70"/>
       <c r="D53" s="39" t="s">
         <v>12</v>
       </c>
@@ -17934,13 +17935,13 @@
       <c r="H53" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="I53" s="53" t="s">
+      <c r="I53" s="72" t="s">
         <v>197</v>
       </c>
       <c r="J53" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="K53" s="53">
+      <c r="K53" s="72">
         <v>0.3</v>
       </c>
       <c r="L53" s="44" t="s">
@@ -17971,8 +17972,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="3:20" ht="33" thickBot="1">
-      <c r="C54" s="61"/>
+    <row r="54" spans="3:20" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="70"/>
       <c r="D54" s="39" t="s">
         <v>13</v>
       </c>
@@ -17988,11 +17989,11 @@
       <c r="H54" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="I54" s="53"/>
+      <c r="I54" s="72"/>
       <c r="J54" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="K54" s="53"/>
+      <c r="K54" s="72"/>
       <c r="L54" s="44" t="s">
         <v>208</v>
       </c>
@@ -18021,8 +18022,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C55" s="64"/>
+    <row r="55" spans="3:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="71"/>
       <c r="D55" s="40" t="s">
         <v>14</v>
       </c>
@@ -18038,7 +18039,7 @@
       <c r="H55" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="I55" s="65"/>
+      <c r="I55" s="73"/>
       <c r="J55" s="45" t="s">
         <v>202</v>
       </c>
@@ -18075,6 +18076,57 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="S43:S47"/>
+    <mergeCell ref="T43:T47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="C43:C55"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="X19:Y19"/>
@@ -18087,57 +18139,6 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C43:C55"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:S47"/>
-    <mergeCell ref="T43:T47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K50:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18149,19 +18150,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB86" sqref="AB86"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="4" max="16" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="4" max="16" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -18190,7 +18191,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -18376,7 +18377,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -18441,7 +18442,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -18506,7 +18507,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -18566,7 +18567,7 @@
       </c>
       <c r="W7" s="33"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -18626,7 +18627,7 @@
       </c>
       <c r="W8" s="33"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -18691,7 +18692,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -18821,7 +18822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -18876,7 +18877,7 @@
       <c r="V12" s="33"/>
       <c r="W12" s="33"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>266</v>
       </c>
@@ -18922,7 +18923,7 @@
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -18990,7 +18991,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -19037,7 +19038,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>266</v>
       </c>
@@ -19090,7 +19091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>278</v>
       </c>
@@ -19153,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>266</v>
       </c>
@@ -19267,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -19317,7 +19318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -19361,7 +19362,7 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>266</v>
       </c>
@@ -19405,7 +19406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -19413,34 +19414,34 @@
         <v>141</v>
       </c>
       <c r="D23">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="E23">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="F23">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="G23">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="H23">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="I23">
-        <v>4.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="J23">
-        <v>4.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="L23">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="N23">
         <v>0.02</v>
@@ -19452,13 +19453,13 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D26">
         <f>((2*D5)/(3*SQRT(3)*POWER($W4*EXP(-6),2)))</f>
         <v>7.5302550301611504</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>6</v>
       </c>
@@ -19499,7 +19500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>135</v>
       </c>
@@ -19556,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>136</v>
       </c>
@@ -19613,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>125</v>
       </c>
@@ -19670,7 +19671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:16">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>126</v>
       </c>
@@ -19727,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>127</v>
       </c>
@@ -19784,7 +19785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:16">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>128</v>
       </c>
@@ -19841,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>140</v>
       </c>
@@ -19898,7 +19899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>6</v>
       </c>
@@ -19939,7 +19940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:16">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>135</v>
       </c>
@@ -19996,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>136</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>125</v>
       </c>
@@ -20110,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:16">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>126</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:16">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>128</v>
       </c>
@@ -20224,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:16">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>140</v>
       </c>
@@ -20281,7 +20282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>6</v>
       </c>
@@ -20322,7 +20323,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>135</v>
       </c>
@@ -20379,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>124</v>
       </c>
@@ -20436,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>125</v>
       </c>
@@ -20493,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>126</v>
       </c>
@@ -20550,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>128</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>140</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>6</v>
       </c>
@@ -20705,7 +20706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>271</v>
       </c>
@@ -20713,12 +20714,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>143</v>
       </c>
@@ -20765,7 +20766,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>145</v>
       </c>
@@ -20809,7 +20810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>146</v>
       </c>
@@ -20866,12 +20867,12 @@
         <v>1.2209575648449267</v>
       </c>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>143</v>
       </c>
@@ -20918,7 +20919,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>145</v>
       </c>
@@ -20962,7 +20963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>146</v>
       </c>
@@ -21019,12 +21020,12 @@
         <v>3.7561685891908114</v>
       </c>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>143</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>145</v>
       </c>
@@ -21115,7 +21116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>146</v>
       </c>
@@ -21172,12 +21173,12 @@
         <v>1.5995484330134033</v>
       </c>
     </row>
-    <row r="84" spans="3:16">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="3:16">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>6</v>
       </c>
@@ -21218,7 +21219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="3:16">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>139</v>
       </c>
@@ -21275,12 +21276,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:16">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="3:16">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>6</v>
       </c>
@@ -21321,7 +21322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="3:16">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>139</v>
       </c>
@@ -21378,12 +21379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:16">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="3:16">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>6</v>
       </c>
@@ -21424,7 +21425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="3:16">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>139</v>
       </c>
@@ -21481,12 +21482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>6</v>
       </c>
@@ -21527,49 +21528,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>138</v>
       </c>
       <c r="D99">
         <f t="shared" ref="D99:P99" si="28">D8*12*D23</f>
-        <v>18354117.599999998</v>
+        <v>11143571.4</v>
       </c>
       <c r="E99">
         <f t="shared" si="28"/>
-        <v>21751329.599999998</v>
+        <v>13206164.4</v>
       </c>
       <c r="F99">
         <f t="shared" si="28"/>
-        <v>11412844.799999999</v>
+        <v>6929227.2000000002</v>
       </c>
       <c r="G99">
         <f t="shared" si="28"/>
-        <v>13363744.799999999</v>
+        <v>8113702.2000000002</v>
       </c>
       <c r="H99">
         <f t="shared" si="28"/>
-        <v>6419044.7999999998</v>
+        <v>3897277.1999999997</v>
       </c>
       <c r="I99">
         <f t="shared" si="28"/>
-        <v>67141958.400000006</v>
+        <v>36622886.399999999</v>
       </c>
       <c r="J99">
         <f t="shared" si="28"/>
-        <v>20684347.200000003</v>
+        <v>11282371.199999999</v>
       </c>
       <c r="K99">
         <f t="shared" si="28"/>
-        <v>364492.79999999999</v>
+        <v>208281.60000000001</v>
       </c>
       <c r="L99">
         <f t="shared" si="28"/>
-        <v>250966.8</v>
+        <v>130939.2</v>
       </c>
       <c r="M99">
         <f t="shared" si="28"/>
-        <v>439770</v>
+        <v>307839</v>
       </c>
       <c r="N99">
         <f t="shared" si="28"/>
@@ -21584,12 +21585,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>6</v>
       </c>
@@ -21630,49 +21631,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>138</v>
       </c>
       <c r="D103">
         <f t="shared" ref="D103:P103" si="29">D8*12*D23</f>
-        <v>18354117.599999998</v>
+        <v>11143571.4</v>
       </c>
       <c r="E103">
         <f t="shared" si="29"/>
-        <v>21751329.599999998</v>
+        <v>13206164.4</v>
       </c>
       <c r="F103">
         <f t="shared" si="29"/>
-        <v>11412844.799999999</v>
+        <v>6929227.2000000002</v>
       </c>
       <c r="G103">
         <f t="shared" si="29"/>
-        <v>13363744.799999999</v>
+        <v>8113702.2000000002</v>
       </c>
       <c r="H103">
         <f t="shared" si="29"/>
-        <v>6419044.7999999998</v>
+        <v>3897277.1999999997</v>
       </c>
       <c r="I103">
         <f t="shared" si="29"/>
-        <v>67141958.400000006</v>
+        <v>36622886.399999999</v>
       </c>
       <c r="J103">
         <f t="shared" si="29"/>
-        <v>20684347.200000003</v>
+        <v>11282371.199999999</v>
       </c>
       <c r="K103">
         <f t="shared" si="29"/>
-        <v>364492.79999999999</v>
+        <v>208281.60000000001</v>
       </c>
       <c r="L103">
         <f t="shared" si="29"/>
-        <v>250966.8</v>
+        <v>130939.2</v>
       </c>
       <c r="M103">
         <f t="shared" si="29"/>
-        <v>439770</v>
+        <v>307839</v>
       </c>
       <c r="N103">
         <f t="shared" si="29"/>
@@ -21687,12 +21688,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>6</v>
       </c>
@@ -21733,49 +21734,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>138</v>
       </c>
       <c r="D107">
         <f t="shared" ref="D107:P107" si="30">D8*12*D23</f>
-        <v>18354117.599999998</v>
+        <v>11143571.4</v>
       </c>
       <c r="E107">
         <f t="shared" si="30"/>
-        <v>21751329.599999998</v>
+        <v>13206164.4</v>
       </c>
       <c r="F107">
         <f t="shared" si="30"/>
-        <v>11412844.799999999</v>
+        <v>6929227.2000000002</v>
       </c>
       <c r="G107">
         <f t="shared" si="30"/>
-        <v>13363744.799999999</v>
+        <v>8113702.2000000002</v>
       </c>
       <c r="H107">
         <f t="shared" si="30"/>
-        <v>6419044.7999999998</v>
+        <v>3897277.1999999997</v>
       </c>
       <c r="I107">
         <f t="shared" si="30"/>
-        <v>67141958.400000006</v>
+        <v>36622886.399999999</v>
       </c>
       <c r="J107">
         <f t="shared" si="30"/>
-        <v>20684347.200000003</v>
+        <v>11282371.199999999</v>
       </c>
       <c r="K107">
         <f t="shared" si="30"/>
-        <v>364492.79999999999</v>
+        <v>208281.60000000001</v>
       </c>
       <c r="L107">
         <f t="shared" si="30"/>
-        <v>250966.8</v>
+        <v>130939.2</v>
       </c>
       <c r="M107">
         <f t="shared" si="30"/>
-        <v>439770</v>
+        <v>307839</v>
       </c>
       <c r="N107">
         <f t="shared" si="30"/>
@@ -21790,12 +21791,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>149</v>
       </c>
@@ -21839,7 +21840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>150</v>
       </c>
@@ -21896,49 +21897,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113" s="36">
         <f>D99-D86</f>
-        <v>-21482753.931906957</v>
+        <v>-28693300.131906956</v>
       </c>
       <c r="E113" s="36">
         <f>E99-E86</f>
-        <v>-29204281.855399054</v>
+        <v>-37749447.055399053</v>
       </c>
       <c r="F113" s="36">
         <f t="shared" ref="F113:P113" si="32">F99-F86</f>
-        <v>-77998685.258094519</v>
+        <v>-82482302.858094513</v>
       </c>
       <c r="G113" s="36">
         <f t="shared" si="32"/>
-        <v>-59114302.523119241</v>
+        <v>-64364345.123119235</v>
       </c>
       <c r="H113" s="36">
         <f t="shared" si="32"/>
-        <v>-19135049.525848847</v>
+        <v>-21656817.125848848</v>
       </c>
       <c r="I113" s="36">
         <f t="shared" si="32"/>
-        <v>66743706.057118788</v>
+        <v>36224634.057118781</v>
       </c>
       <c r="J113" s="36">
         <f t="shared" si="32"/>
-        <v>20606765.574763402</v>
+        <v>11204789.574763399</v>
       </c>
       <c r="K113" s="36">
         <f t="shared" si="32"/>
-        <v>350269.50203995663</v>
+        <v>194058.30203995662</v>
       </c>
       <c r="L113" s="36">
         <f>L99-L86</f>
-        <v>137180.41631965293</v>
+        <v>17152.816319652949</v>
       </c>
       <c r="M113" s="36">
         <f t="shared" si="32"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N113" s="36">
         <f t="shared" si="32"/>
@@ -21953,49 +21954,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114" s="36">
         <f>D113</f>
-        <v>-21482753.931906957</v>
+        <v>-28693300.131906956</v>
       </c>
       <c r="E114" s="36">
         <f t="shared" ref="E114:P114" si="33">E113</f>
-        <v>-29204281.855399054</v>
+        <v>-37749447.055399053</v>
       </c>
       <c r="F114" s="36">
         <f t="shared" si="33"/>
-        <v>-77998685.258094519</v>
+        <v>-82482302.858094513</v>
       </c>
       <c r="G114" s="36">
         <f t="shared" si="33"/>
-        <v>-59114302.523119241</v>
+        <v>-64364345.123119235</v>
       </c>
       <c r="H114" s="36">
         <f t="shared" si="33"/>
-        <v>-19135049.525848847</v>
+        <v>-21656817.125848848</v>
       </c>
       <c r="I114" s="36">
         <f t="shared" si="33"/>
-        <v>66743706.057118788</v>
+        <v>36224634.057118781</v>
       </c>
       <c r="J114" s="36">
         <f t="shared" si="33"/>
-        <v>20606765.574763402</v>
+        <v>11204789.574763399</v>
       </c>
       <c r="K114" s="36">
         <f t="shared" si="33"/>
-        <v>350269.50203995663</v>
+        <v>194058.30203995662</v>
       </c>
       <c r="L114" s="36">
         <f t="shared" si="33"/>
-        <v>137180.41631965293</v>
+        <v>17152.816319652949</v>
       </c>
       <c r="M114" s="36">
         <f t="shared" si="33"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N114" s="36">
         <f t="shared" si="33"/>
@@ -22010,49 +22011,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115" s="36">
         <f t="shared" ref="D115:D117" si="34">D114</f>
-        <v>-21482753.931906957</v>
+        <v>-28693300.131906956</v>
       </c>
       <c r="E115" s="36">
         <f t="shared" ref="E115:E117" si="35">E114</f>
-        <v>-29204281.855399054</v>
+        <v>-37749447.055399053</v>
       </c>
       <c r="F115" s="36">
         <f t="shared" ref="F115:F117" si="36">F114</f>
-        <v>-77998685.258094519</v>
+        <v>-82482302.858094513</v>
       </c>
       <c r="G115" s="36">
         <f t="shared" ref="G115:G117" si="37">G114</f>
-        <v>-59114302.523119241</v>
+        <v>-64364345.123119235</v>
       </c>
       <c r="H115" s="36">
         <f t="shared" ref="H115:H117" si="38">H114</f>
-        <v>-19135049.525848847</v>
+        <v>-21656817.125848848</v>
       </c>
       <c r="I115" s="36">
         <f t="shared" ref="I115:I117" si="39">I114</f>
-        <v>66743706.057118788</v>
+        <v>36224634.057118781</v>
       </c>
       <c r="J115" s="36">
         <f t="shared" ref="J115:J117" si="40">J114</f>
-        <v>20606765.574763402</v>
+        <v>11204789.574763399</v>
       </c>
       <c r="K115" s="36">
         <f t="shared" ref="K115:K117" si="41">K114</f>
-        <v>350269.50203995663</v>
+        <v>194058.30203995662</v>
       </c>
       <c r="L115" s="36">
         <f t="shared" ref="L115:L117" si="42">L114</f>
-        <v>137180.41631965293</v>
+        <v>17152.816319652949</v>
       </c>
       <c r="M115" s="36">
         <f t="shared" ref="M115:M117" si="43">M114</f>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N115" s="36">
         <f t="shared" ref="N115:N117" si="44">N114</f>
@@ -22067,49 +22068,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>4</v>
       </c>
       <c r="D116" s="36">
         <f t="shared" si="34"/>
-        <v>-21482753.931906957</v>
+        <v>-28693300.131906956</v>
       </c>
       <c r="E116" s="36">
         <f t="shared" si="35"/>
-        <v>-29204281.855399054</v>
+        <v>-37749447.055399053</v>
       </c>
       <c r="F116" s="36">
         <f t="shared" si="36"/>
-        <v>-77998685.258094519</v>
+        <v>-82482302.858094513</v>
       </c>
       <c r="G116" s="36">
         <f t="shared" si="37"/>
-        <v>-59114302.523119241</v>
+        <v>-64364345.123119235</v>
       </c>
       <c r="H116" s="36">
         <f t="shared" si="38"/>
-        <v>-19135049.525848847</v>
+        <v>-21656817.125848848</v>
       </c>
       <c r="I116" s="36">
         <f t="shared" si="39"/>
-        <v>66743706.057118788</v>
+        <v>36224634.057118781</v>
       </c>
       <c r="J116" s="36">
         <f t="shared" si="40"/>
-        <v>20606765.574763402</v>
+        <v>11204789.574763399</v>
       </c>
       <c r="K116" s="36">
         <f t="shared" si="41"/>
-        <v>350269.50203995663</v>
+        <v>194058.30203995662</v>
       </c>
       <c r="L116" s="36">
         <f t="shared" si="42"/>
-        <v>137180.41631965293</v>
+        <v>17152.816319652949</v>
       </c>
       <c r="M116" s="36">
         <f t="shared" si="43"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N116" s="36">
         <f t="shared" si="44"/>
@@ -22124,49 +22125,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>5</v>
       </c>
       <c r="D117" s="36">
         <f t="shared" si="34"/>
-        <v>-21482753.931906957</v>
+        <v>-28693300.131906956</v>
       </c>
       <c r="E117" s="36">
         <f t="shared" si="35"/>
-        <v>-29204281.855399054</v>
+        <v>-37749447.055399053</v>
       </c>
       <c r="F117" s="36">
         <f t="shared" si="36"/>
-        <v>-77998685.258094519</v>
+        <v>-82482302.858094513</v>
       </c>
       <c r="G117" s="36">
         <f t="shared" si="37"/>
-        <v>-59114302.523119241</v>
+        <v>-64364345.123119235</v>
       </c>
       <c r="H117" s="36">
         <f t="shared" si="38"/>
-        <v>-19135049.525848847</v>
+        <v>-21656817.125848848</v>
       </c>
       <c r="I117" s="36">
         <f t="shared" si="39"/>
-        <v>66743706.057118788</v>
+        <v>36224634.057118781</v>
       </c>
       <c r="J117" s="36">
         <f t="shared" si="40"/>
-        <v>20606765.574763402</v>
+        <v>11204789.574763399</v>
       </c>
       <c r="K117" s="36">
         <f t="shared" si="41"/>
-        <v>350269.50203995663</v>
+        <v>194058.30203995662</v>
       </c>
       <c r="L117" s="36">
         <f t="shared" si="42"/>
-        <v>137180.41631965293</v>
+        <v>17152.816319652949</v>
       </c>
       <c r="M117" s="36">
         <f t="shared" si="43"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N117" s="36">
         <f t="shared" si="44"/>
@@ -22181,49 +22182,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>149</v>
       </c>
       <c r="D118" s="36">
         <f>NPV(5%,D113:D117)+D112</f>
-        <v>-125206797.64409369</v>
+        <v>-156424689.19949937</v>
       </c>
       <c r="E118" s="36">
         <f t="shared" ref="E118:P118" si="47">NPV(5%,E113:E117)+E112</f>
-        <v>-167081712.57547712</v>
+        <v>-204077805.95556349</v>
       </c>
       <c r="F118" s="36">
         <f t="shared" si="47"/>
-        <v>-408575016.35979617</v>
+        <v>-427986734.15902591</v>
       </c>
       <c r="G118" s="36">
         <f t="shared" si="47"/>
-        <v>-315416876.7444573</v>
+        <v>-338146813.70097524</v>
       </c>
       <c r="H118" s="36">
         <f t="shared" si="47"/>
-        <v>-103005085.62852789</v>
+        <v>-113923019.62148057</v>
       </c>
       <c r="I118" s="36">
         <f t="shared" si="47"/>
-        <v>288786789.16573668</v>
+        <v>156655178.93243441</v>
       </c>
       <c r="J118" s="36">
         <f t="shared" si="47"/>
-        <v>89181079.013096422</v>
+        <v>48475443.26326555</v>
       </c>
       <c r="K118" s="36">
         <f t="shared" si="47"/>
-        <v>1510852.4075154662</v>
+        <v>834539.66142422124</v>
       </c>
       <c r="L118" s="36">
         <f t="shared" si="47"/>
-        <v>544079.73212336062</v>
+        <v>24423.038091553033</v>
       </c>
       <c r="M118" s="36">
         <f t="shared" si="47"/>
-        <v>1893236.0494849517</v>
+        <v>1322043.8628519569</v>
       </c>
       <c r="N118" s="36">
         <f t="shared" si="47"/>
@@ -22238,7 +22239,7 @@
         <v>5195.3720047569832</v>
       </c>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>151</v>
       </c>
@@ -22264,23 +22265,23 @@
       </c>
       <c r="I119" s="35">
         <f t="shared" si="48"/>
-        <v>373.85333024163833</v>
+        <v>202.90602483794467</v>
       </c>
       <c r="J119" s="35">
         <f t="shared" si="48"/>
-        <v>581.58957701169277</v>
+        <v>316.23540364191854</v>
       </c>
       <c r="K119" s="35">
         <f t="shared" si="48"/>
-        <v>62.201242302765394</v>
+        <v>34.461085514033641</v>
       </c>
       <c r="L119" s="35">
         <f t="shared" si="48"/>
-        <v>2.7487157734118495</v>
+        <v>0.21322616974973685</v>
       </c>
       <c r="M119" s="35">
         <f t="shared" si="48"/>
-        <v>42.520177746800606</v>
+        <v>29.761460208469291</v>
       </c>
       <c r="N119" s="35" t="e">
         <f t="shared" si="48"/>
@@ -22295,12 +22296,12 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>149</v>
       </c>
@@ -22344,7 +22345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="2:16">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>150</v>
       </c>
@@ -22401,49 +22402,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" s="36">
         <f>D103-D90</f>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E126" s="36">
         <f>E103-E90</f>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F126" s="36">
         <f t="shared" ref="F126:P126" si="50">F103-F90</f>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G126" s="36">
         <f t="shared" si="50"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H126" s="36">
         <f t="shared" si="50"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I126" s="36">
         <f t="shared" si="50"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J126" s="36">
         <f t="shared" si="50"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K126" s="36">
         <f t="shared" si="50"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L126" s="36">
         <f t="shared" si="50"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M126" s="36">
         <f t="shared" si="50"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N126" s="36">
         <f t="shared" si="50"/>
@@ -22458,49 +22459,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127" s="36">
         <f>D126</f>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E127" s="36">
         <f t="shared" ref="E127:P127" si="51">E126</f>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F127" s="36">
         <f t="shared" si="51"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G127" s="36">
         <f t="shared" si="51"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H127" s="36">
         <f t="shared" si="51"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I127" s="36">
         <f t="shared" si="51"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J127" s="36">
         <f t="shared" si="51"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K127" s="36">
         <f t="shared" si="51"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L127" s="36">
         <f t="shared" si="51"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M127" s="36">
         <f t="shared" si="51"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N127" s="36">
         <f t="shared" si="51"/>
@@ -22515,49 +22516,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128" s="36">
         <f t="shared" ref="D128:D135" si="52">D127</f>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E128" s="36">
         <f t="shared" ref="E128:E135" si="53">E127</f>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F128" s="36">
         <f t="shared" ref="F128:F135" si="54">F127</f>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G128" s="36">
         <f t="shared" ref="G128:G135" si="55">G127</f>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H128" s="36">
         <f t="shared" ref="H128:H135" si="56">H127</f>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I128" s="36">
         <f t="shared" ref="I128:I135" si="57">I127</f>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J128" s="36">
         <f t="shared" ref="J128:J135" si="58">J127</f>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K128" s="36">
         <f t="shared" ref="K128:K135" si="59">K127</f>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L128" s="36">
         <f t="shared" ref="L128:L135" si="60">L127</f>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M128" s="36">
         <f t="shared" ref="M128:M135" si="61">M127</f>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N128" s="36">
         <f t="shared" ref="N128:N135" si="62">N127</f>
@@ -22572,49 +22573,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="129" spans="2:17">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>4</v>
       </c>
       <c r="D129" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E129" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F129" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G129" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H129" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I129" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J129" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K129" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L129" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M129" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N129" s="36">
         <f t="shared" si="62"/>
@@ -22629,49 +22630,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="130" spans="2:17">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>5</v>
       </c>
       <c r="D130" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E130" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F130" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G130" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H130" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I130" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J130" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K130" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L130" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M130" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N130" s="36">
         <f t="shared" si="62"/>
@@ -22686,49 +22687,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="131" spans="2:17">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>6</v>
       </c>
       <c r="D131" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E131" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F131" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G131" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H131" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I131" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J131" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K131" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L131" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M131" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N131" s="36">
         <f t="shared" si="62"/>
@@ -22743,49 +22744,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="132" spans="2:17">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>7</v>
       </c>
       <c r="D132" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E132" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F132" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G132" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H132" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I132" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J132" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K132" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L132" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M132" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N132" s="36">
         <f t="shared" si="62"/>
@@ -22800,49 +22801,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="133" spans="2:17">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>8</v>
       </c>
       <c r="D133" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E133" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F133" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G133" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H133" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I133" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J133" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K133" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L133" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M133" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N133" s="36">
         <f t="shared" si="62"/>
@@ -22857,49 +22858,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="134" spans="2:17">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>9</v>
       </c>
       <c r="D134" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E134" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F134" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G134" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H134" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I134" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J134" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K134" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L134" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M134" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N134" s="36">
         <f t="shared" si="62"/>
@@ -22914,49 +22915,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="135" spans="2:17">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>10</v>
       </c>
       <c r="D135" s="36">
         <f t="shared" si="52"/>
-        <v>18044469.733967979</v>
+        <v>10833923.533967981</v>
       </c>
       <c r="E135" s="36">
         <f t="shared" si="53"/>
-        <v>21358315.000805512</v>
+        <v>12813149.800805515</v>
       </c>
       <c r="F135" s="36">
         <f t="shared" si="54"/>
-        <v>10726061.712518727</v>
+        <v>6242444.1125187287</v>
       </c>
       <c r="G135" s="36">
         <f t="shared" si="55"/>
-        <v>12803996.73448058</v>
+        <v>7553954.1344805826</v>
       </c>
       <c r="H135" s="36">
         <f t="shared" si="56"/>
-        <v>6220552.5781846037</v>
+        <v>3698784.9781846032</v>
       </c>
       <c r="I135" s="36">
         <f t="shared" si="57"/>
-        <v>67137988.555563703</v>
+        <v>36618916.555563688</v>
       </c>
       <c r="J135" s="36">
         <f t="shared" si="58"/>
-        <v>20680377.355563696</v>
+        <v>11278401.355563691</v>
       </c>
       <c r="K135" s="36">
         <f t="shared" si="59"/>
-        <v>360522.95556369208</v>
+        <v>204311.75556369207</v>
       </c>
       <c r="L135" s="36">
         <f t="shared" si="60"/>
-        <v>246996.95556369206</v>
+        <v>126969.35556369206</v>
       </c>
       <c r="M135" s="36">
         <f t="shared" si="61"/>
-        <v>439762.35</v>
+        <v>307831.34999999998</v>
       </c>
       <c r="N135" s="36">
         <f t="shared" si="62"/>
@@ -22971,49 +22972,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="136" spans="2:17">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>149</v>
       </c>
       <c r="D136" s="36">
         <f>NPV(5%,D126:D135)+D125</f>
-        <v>139053952.62339869</v>
+        <v>83376026.172357902</v>
       </c>
       <c r="E136" s="36">
         <f t="shared" ref="E136:P136" si="65">NPV(5%,E126:E135)+E125</f>
-        <v>164579276.42025182</v>
+        <v>98595775.819757327</v>
       </c>
       <c r="F136" s="36">
         <f t="shared" si="65"/>
-        <v>82244134.278147727</v>
+        <v>47622827.647119932</v>
       </c>
       <c r="G136" s="36">
         <f t="shared" si="65"/>
-        <v>98344273.867806956</v>
+        <v>57804836.543678723</v>
       </c>
       <c r="H136" s="36">
         <f t="shared" si="65"/>
-        <v>47861798.121798679</v>
+        <v>28389377.16159213</v>
       </c>
       <c r="I136" s="36">
         <f t="shared" si="65"/>
-        <v>518419791.75470638</v>
+        <v>282759607.48600006</v>
       </c>
       <c r="J136" s="36">
         <f t="shared" si="65"/>
-        <v>159686322.62517878</v>
+        <v>87086756.142621472</v>
       </c>
       <c r="K136" s="36">
         <f t="shared" si="65"/>
-        <v>2781873.198749104</v>
+        <v>1575651.7193792299</v>
       </c>
       <c r="L136" s="36">
         <f t="shared" si="65"/>
-        <v>1905335.3191784697</v>
+        <v>978514.00779224688</v>
       </c>
       <c r="M136" s="36">
         <f t="shared" si="65"/>
-        <v>3393699.9985353961</v>
+        <v>2374963.7875931147</v>
       </c>
       <c r="N136" s="36">
         <f t="shared" si="65"/>
@@ -23028,49 +23029,49 @@
         <v>9266.081915021774</v>
       </c>
     </row>
-    <row r="137" spans="2:17">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>151</v>
       </c>
       <c r="D137" s="35">
         <f>IRR(D125:D135)</f>
-        <v>64.293078640345556</v>
+        <v>38.601649592488556</v>
       </c>
       <c r="E137" s="35">
         <f t="shared" ref="E137:P137" si="66">IRR(E125:E135)</f>
-        <v>62.093440850693334</v>
+        <v>37.250717541968399</v>
       </c>
       <c r="F137" s="35">
         <f t="shared" si="66"/>
-        <v>18.503702724730257</v>
+        <v>10.768941409009818</v>
       </c>
       <c r="G137" s="35">
         <f t="shared" si="66"/>
-        <v>24.398094407121196</v>
+        <v>14.394105992198432</v>
       </c>
       <c r="H137" s="35">
         <f t="shared" si="66"/>
-        <v>36.237635897615</v>
+        <v>21.547157044066704</v>
       </c>
       <c r="I137" s="35">
         <f t="shared" si="66"/>
-        <v>34261.942055819112</v>
+        <v>18687.411168683266</v>
       </c>
       <c r="J137" s="35">
         <f t="shared" si="66"/>
-        <v>9992.6927861393888</v>
+        <v>5449.687785057261</v>
       </c>
       <c r="K137" s="35">
         <f t="shared" si="66"/>
-        <v>181.21284521924761</v>
+        <v>102.69502667187363</v>
       </c>
       <c r="L137" s="35">
         <f t="shared" si="66"/>
-        <v>129.33809266570319</v>
+        <v>66.486545302242448</v>
       </c>
       <c r="M137" s="35">
         <f t="shared" si="66"/>
-        <v>216.8132672681563</v>
+        <v>151.76815559828484</v>
       </c>
       <c r="N137" s="35" t="e">
         <f t="shared" si="66"/>
@@ -23085,12 +23086,12 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="141" spans="2:17">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="142" spans="2:17">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>149</v>
       </c>
@@ -23134,7 +23135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:17">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>150</v>
       </c>
@@ -23191,49 +23192,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:17">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" s="36">
         <f>D107-D94</f>
-        <v>-33786530.721558079</v>
+        <v>-40997076.921558082</v>
       </c>
       <c r="E144" s="36">
         <f t="shared" ref="E144:P144" si="68">E107-E94</f>
-        <v>-44942125.85314554</v>
+        <v>-53487291.053145535</v>
       </c>
       <c r="F144" s="36">
         <f t="shared" si="68"/>
-        <v>-105613793.22094907</v>
+        <v>-110097410.82094906</v>
       </c>
       <c r="G144" s="36">
         <f t="shared" si="68"/>
-        <v>-81499436.749816462</v>
+        <v>-86749479.349816456</v>
       </c>
       <c r="H144" s="36">
         <f t="shared" si="68"/>
-        <v>-27027533.562782053</v>
+        <v>-29549301.162782054</v>
       </c>
       <c r="I144" s="36">
         <f t="shared" si="68"/>
-        <v>66620704.231314234</v>
+        <v>36101632.231314227</v>
       </c>
       <c r="J144" s="36">
         <f t="shared" si="68"/>
-        <v>20582804.180126153</v>
+        <v>11180828.180126147</v>
       </c>
       <c r="K144" s="36">
         <f t="shared" si="68"/>
-        <v>345876.57968979393</v>
+        <v>189665.37968979392</v>
       </c>
       <c r="L144" s="36">
         <f t="shared" si="68"/>
-        <v>102037.0375183514</v>
+        <v>-17990.562481648594</v>
       </c>
       <c r="M144" s="36">
         <f t="shared" si="68"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N144" s="36">
         <f t="shared" si="68"/>
@@ -23249,49 +23250,49 @@
       </c>
       <c r="Q144" s="36"/>
     </row>
-    <row r="145" spans="3:16">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145" s="36">
         <f>D144</f>
-        <v>-33786530.721558079</v>
+        <v>-40997076.921558082</v>
       </c>
       <c r="E145" s="36">
         <f t="shared" ref="E145:P148" si="69">E144</f>
-        <v>-44942125.85314554</v>
+        <v>-53487291.053145535</v>
       </c>
       <c r="F145" s="36">
         <f t="shared" si="69"/>
-        <v>-105613793.22094907</v>
+        <v>-110097410.82094906</v>
       </c>
       <c r="G145" s="36">
         <f t="shared" si="69"/>
-        <v>-81499436.749816462</v>
+        <v>-86749479.349816456</v>
       </c>
       <c r="H145" s="36">
         <f t="shared" si="69"/>
-        <v>-27027533.562782053</v>
+        <v>-29549301.162782054</v>
       </c>
       <c r="I145" s="36">
         <f t="shared" si="69"/>
-        <v>66620704.231314234</v>
+        <v>36101632.231314227</v>
       </c>
       <c r="J145" s="36">
         <f t="shared" si="69"/>
-        <v>20582804.180126153</v>
+        <v>11180828.180126147</v>
       </c>
       <c r="K145" s="36">
         <f t="shared" si="69"/>
-        <v>345876.57968979393</v>
+        <v>189665.37968979392</v>
       </c>
       <c r="L145" s="36">
         <f t="shared" si="69"/>
-        <v>102037.0375183514</v>
+        <v>-17990.562481648594</v>
       </c>
       <c r="M145" s="36">
         <f t="shared" si="69"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N145" s="36">
         <f t="shared" si="69"/>
@@ -23306,49 +23307,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="146" spans="3:16">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C146">
         <v>3</v>
       </c>
       <c r="D146" s="36">
         <f t="shared" ref="D146:D148" si="70">D145</f>
-        <v>-33786530.721558079</v>
+        <v>-40997076.921558082</v>
       </c>
       <c r="E146" s="36">
         <f t="shared" si="69"/>
-        <v>-44942125.85314554</v>
+        <v>-53487291.053145535</v>
       </c>
       <c r="F146" s="36">
         <f t="shared" si="69"/>
-        <v>-105613793.22094907</v>
+        <v>-110097410.82094906</v>
       </c>
       <c r="G146" s="36">
         <f t="shared" si="69"/>
-        <v>-81499436.749816462</v>
+        <v>-86749479.349816456</v>
       </c>
       <c r="H146" s="36">
         <f t="shared" si="69"/>
-        <v>-27027533.562782053</v>
+        <v>-29549301.162782054</v>
       </c>
       <c r="I146" s="36">
         <f t="shared" si="69"/>
-        <v>66620704.231314234</v>
+        <v>36101632.231314227</v>
       </c>
       <c r="J146" s="36">
         <f t="shared" si="69"/>
-        <v>20582804.180126153</v>
+        <v>11180828.180126147</v>
       </c>
       <c r="K146" s="36">
         <f t="shared" si="69"/>
-        <v>345876.57968979393</v>
+        <v>189665.37968979392</v>
       </c>
       <c r="L146" s="36">
         <f t="shared" si="69"/>
-        <v>102037.0375183514</v>
+        <v>-17990.562481648594</v>
       </c>
       <c r="M146" s="36">
         <f t="shared" si="69"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N146" s="36">
         <f t="shared" si="69"/>
@@ -23363,49 +23364,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="147" spans="3:16">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>4</v>
       </c>
       <c r="D147" s="36">
         <f t="shared" si="70"/>
-        <v>-33786530.721558079</v>
+        <v>-40997076.921558082</v>
       </c>
       <c r="E147" s="36">
         <f t="shared" si="69"/>
-        <v>-44942125.85314554</v>
+        <v>-53487291.053145535</v>
       </c>
       <c r="F147" s="36">
         <f t="shared" si="69"/>
-        <v>-105613793.22094907</v>
+        <v>-110097410.82094906</v>
       </c>
       <c r="G147" s="36">
         <f t="shared" si="69"/>
-        <v>-81499436.749816462</v>
+        <v>-86749479.349816456</v>
       </c>
       <c r="H147" s="36">
         <f t="shared" si="69"/>
-        <v>-27027533.562782053</v>
+        <v>-29549301.162782054</v>
       </c>
       <c r="I147" s="36">
         <f t="shared" si="69"/>
-        <v>66620704.231314234</v>
+        <v>36101632.231314227</v>
       </c>
       <c r="J147" s="36">
         <f t="shared" si="69"/>
-        <v>20582804.180126153</v>
+        <v>11180828.180126147</v>
       </c>
       <c r="K147" s="36">
         <f t="shared" si="69"/>
-        <v>345876.57968979393</v>
+        <v>189665.37968979392</v>
       </c>
       <c r="L147" s="36">
         <f t="shared" si="69"/>
-        <v>102037.0375183514</v>
+        <v>-17990.562481648594</v>
       </c>
       <c r="M147" s="36">
         <f t="shared" si="69"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N147" s="36">
         <f t="shared" si="69"/>
@@ -23420,49 +23421,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="148" spans="3:16">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>5</v>
       </c>
       <c r="D148" s="36">
         <f t="shared" si="70"/>
-        <v>-33786530.721558079</v>
+        <v>-40997076.921558082</v>
       </c>
       <c r="E148" s="36">
         <f t="shared" si="69"/>
-        <v>-44942125.85314554</v>
+        <v>-53487291.053145535</v>
       </c>
       <c r="F148" s="36">
         <f t="shared" si="69"/>
-        <v>-105613793.22094907</v>
+        <v>-110097410.82094906</v>
       </c>
       <c r="G148" s="36">
         <f t="shared" si="69"/>
-        <v>-81499436.749816462</v>
+        <v>-86749479.349816456</v>
       </c>
       <c r="H148" s="36">
         <f t="shared" si="69"/>
-        <v>-27027533.562782053</v>
+        <v>-29549301.162782054</v>
       </c>
       <c r="I148" s="36">
         <f t="shared" si="69"/>
-        <v>66620704.231314234</v>
+        <v>36101632.231314227</v>
       </c>
       <c r="J148" s="36">
         <f t="shared" si="69"/>
-        <v>20582804.180126153</v>
+        <v>11180828.180126147</v>
       </c>
       <c r="K148" s="36">
         <f t="shared" si="69"/>
-        <v>345876.57968979393</v>
+        <v>189665.37968979392</v>
       </c>
       <c r="L148" s="36">
         <f t="shared" si="69"/>
-        <v>102037.0375183514</v>
+        <v>-17990.562481648594</v>
       </c>
       <c r="M148" s="36">
         <f t="shared" si="69"/>
-        <v>439678.2</v>
+        <v>307747.20000000001</v>
       </c>
       <c r="N148" s="36">
         <f t="shared" si="69"/>
@@ -23477,49 +23478,49 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="149" spans="3:16">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>149</v>
       </c>
       <c r="D149" s="36">
         <f>NPV(5%,D144:D148)+D143</f>
-        <v>-185433154.64053714</v>
+        <v>-216651046.19594285</v>
       </c>
       <c r="E149" s="36">
         <f t="shared" ref="E149:P149" si="71">NPV(5%,E144:E148)+E143</f>
-        <v>-244659512.60974783</v>
+        <v>-281655605.98983413</v>
       </c>
       <c r="F149" s="36">
         <f t="shared" si="71"/>
-        <v>-545133917.94692636</v>
+        <v>-564545635.7461561</v>
       </c>
       <c r="G149" s="36">
         <f t="shared" si="71"/>
-        <v>-424087667.77788228</v>
+        <v>-446817604.73440027</v>
       </c>
       <c r="H149" s="36">
         <f t="shared" si="71"/>
-        <v>-142131872.72475636</v>
+        <v>-153049806.71770903</v>
       </c>
       <c r="I149" s="36">
         <f t="shared" si="71"/>
-        <v>288217523.55047089</v>
+        <v>156085913.31716856</v>
       </c>
       <c r="J149" s="36">
         <f t="shared" si="71"/>
-        <v>89070836.51401867</v>
+        <v>48365200.76418779</v>
       </c>
       <c r="K149" s="36">
         <f t="shared" si="71"/>
-        <v>1491412.932684544</v>
+        <v>815100.18659329903</v>
       </c>
       <c r="L149" s="36">
         <f t="shared" si="71"/>
-        <v>389833.773475984</v>
+        <v>-129822.92055582367</v>
       </c>
       <c r="M149" s="36">
         <f t="shared" si="71"/>
-        <v>1894438.8094849517</v>
+        <v>1323246.6228519569</v>
       </c>
       <c r="N149" s="36">
         <f t="shared" si="71"/>
@@ -23534,7 +23535,7 @@
         <v>5195.3720047569832</v>
       </c>
     </row>
-    <row r="150" spans="3:16">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>151</v>
       </c>
@@ -23560,23 +23561,23 @@
       </c>
       <c r="I150" s="35">
         <f t="shared" si="72"/>
-        <v>309.48774898259211</v>
+        <v>167.71081937223406</v>
       </c>
       <c r="J150" s="35">
         <f t="shared" si="72"/>
-        <v>490.83808318132998</v>
+        <v>266.629183481616</v>
       </c>
       <c r="K150" s="35">
         <f t="shared" si="72"/>
-        <v>57.154095026938883</v>
-      </c>
-      <c r="L150" s="35">
+        <v>31.341101076431315</v>
+      </c>
+      <c r="L150" s="35" t="e">
         <f t="shared" si="72"/>
-        <v>1.9560702987493208</v>
+        <v>#NUM!</v>
       </c>
       <c r="M150" s="35">
         <f t="shared" si="72"/>
-        <v>48.116943920452847</v>
+        <v>33.678846303140148</v>
       </c>
       <c r="N150" s="35" t="e">
         <f t="shared" si="72"/>
@@ -23591,7 +23592,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="156" spans="3:16">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>30</v>
       </c>
@@ -23602,7 +23603,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="157" spans="3:16">
+    <row r="157" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C157">
         <v>0</v>
       </c>
@@ -23619,7 +23620,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="3:16">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C158">
         <v>1</v>
       </c>
@@ -23636,7 +23637,7 @@
         <v>0.42063730207107852</v>
       </c>
     </row>
-    <row r="159" spans="3:16">
+    <row r="159" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C159">
         <v>2</v>
       </c>
@@ -23653,7 +23654,7 @@
         <v>0.68637242593339298</v>
       </c>
     </row>
-    <row r="160" spans="3:16">
+    <row r="160" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C160">
         <v>3</v>
       </c>
@@ -23670,7 +23671,7 @@
         <v>1.1090959620437835</v>
       </c>
     </row>
-    <row r="161" spans="3:6">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161">
         <v>4</v>
       </c>
@@ -23687,7 +23688,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="162" spans="3:6">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>5</v>
       </c>
@@ -23704,7 +23705,7 @@
         <v>2.3015413400272946</v>
       </c>
     </row>
-    <row r="163" spans="3:6">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>6</v>
       </c>
@@ -23721,7 +23722,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="164" spans="3:6">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>7</v>
       </c>
@@ -23738,7 +23739,7 @@
         <v>3.6784586599727049</v>
       </c>
     </row>
-    <row r="165" spans="3:6">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C165">
         <v>8</v>
       </c>
@@ -23755,7 +23756,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="166" spans="3:6">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C166">
         <v>9</v>
       </c>
@@ -23772,7 +23773,7 @@
         <v>4.8709040379562163</v>
       </c>
     </row>
-    <row r="167" spans="3:6">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C167">
         <v>10</v>
       </c>
@@ -23789,7 +23790,7 @@
         <v>5.2936275740666066</v>
       </c>
     </row>
-    <row r="168" spans="3:6">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C168">
         <v>11</v>
       </c>
@@ -23806,7 +23807,7 @@
         <v>5.5593626979289219</v>
       </c>
     </row>
-    <row r="169" spans="3:6">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C169">
         <v>12</v>
       </c>
@@ -23823,7 +23824,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="170" spans="3:6">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C170">
         <v>13</v>
       </c>
@@ -23840,7 +23841,7 @@
         <v>5.5593626979289219</v>
       </c>
     </row>
-    <row r="171" spans="3:6">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171">
         <v>14</v>
       </c>
@@ -23857,7 +23858,7 @@
         <v>5.2936275740666074</v>
       </c>
     </row>
-    <row r="172" spans="3:6">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C172">
         <v>15</v>
       </c>
@@ -23874,7 +23875,7 @@
         <v>4.8709040379562181</v>
       </c>
     </row>
-    <row r="173" spans="3:6">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C173">
         <v>16</v>
       </c>
@@ -23891,7 +23892,7 @@
         <v>4.3200000000000012</v>
       </c>
     </row>
-    <row r="174" spans="3:6">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174">
         <v>17</v>
       </c>
@@ -23908,7 +23909,7 @@
         <v>3.6784586599727076</v>
       </c>
     </row>
-    <row r="175" spans="3:6">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>18</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>2.9900000000000007</v>
       </c>
     </row>
-    <row r="176" spans="3:6">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>19</v>
       </c>
@@ -23942,7 +23943,7 @@
         <v>2.3015413400272964</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>20</v>
       </c>
@@ -23959,7 +23960,7 @@
         <v>1.6600000000000019</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>21</v>
       </c>
@@ -23976,7 +23977,7 @@
         <v>1.1090959620437841</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>22</v>
       </c>
@@ -23993,7 +23994,7 @@
         <v>0.68637242593339387</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C180">
         <v>23</v>
       </c>
@@ -24010,7 +24011,7 @@
         <v>0.42063730207107897</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C181">
         <v>24</v>
       </c>
@@ -24027,7 +24028,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>6</v>
       </c>
@@ -24068,7 +24069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>268</v>
       </c>
@@ -24118,7 +24119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>31</v>
       </c>
@@ -24165,7 +24166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>266</v>
       </c>
@@ -24212,7 +24213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>269</v>
       </c>
@@ -24262,7 +24263,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>31</v>
       </c>
@@ -24309,7 +24310,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="193" spans="2:16">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>266</v>
       </c>
@@ -24371,15 +24372,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="16" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="4" max="16" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -24405,7 +24406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -24461,7 +24462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -24520,7 +24521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -24582,7 +24583,7 @@
         <v>12902.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -24644,7 +24645,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -24706,7 +24707,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -24766,7 +24767,7 @@
       </c>
       <c r="W7" s="33"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -24826,7 +24827,7 @@
       </c>
       <c r="W8" s="33"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -24888,7 +24889,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -24950,7 +24951,7 @@
         <v>938.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -25015,7 +25016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -25070,7 +25071,7 @@
       <c r="V12" s="33"/>
       <c r="W12" s="33"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -25135,7 +25136,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -25179,7 +25180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -25238,7 +25239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -25295,7 +25296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -25345,7 +25346,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -25389,7 +25390,7 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -25436,7 +25437,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>6</v>
       </c>
@@ -25477,7 +25478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>135</v>
       </c>
@@ -25534,7 +25535,7 @@
         <v>77.000000000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>136</v>
       </c>
@@ -25591,7 +25592,7 @@
         <v>121.27500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>125</v>
       </c>
@@ -25648,7 +25649,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -25705,7 +25706,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -25762,7 +25763,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>128</v>
       </c>
@@ -25819,7 +25820,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>140</v>
       </c>
@@ -25876,7 +25877,7 @@
         <v>2552.7750000000001</v>
       </c>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>6</v>
       </c>
@@ -25917,7 +25918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>135</v>
       </c>
@@ -25974,7 +25975,7 @@
         <v>48.400000000000006</v>
       </c>
     </row>
-    <row r="38" spans="3:16">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>136</v>
       </c>
@@ -26031,7 +26032,7 @@
         <v>254.10000000000002</v>
       </c>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>125</v>
       </c>
@@ -26088,7 +26089,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>126</v>
       </c>
@@ -26145,7 +26146,7 @@
         <v>1876.4</v>
       </c>
     </row>
-    <row r="41" spans="3:16">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -26202,7 +26203,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>128</v>
       </c>
@@ -26259,7 +26260,7 @@
         <v>961.6</v>
       </c>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>140</v>
       </c>
@@ -26316,12 +26317,12 @@
         <v>4130.7</v>
       </c>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>143</v>
       </c>
@@ -26368,7 +26369,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>145</v>
       </c>
@@ -26412,7 +26413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>146</v>
       </c>
@@ -26469,12 +26470,12 @@
         <v>1.2209575648449267</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>143</v>
       </c>
@@ -26521,7 +26522,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>145</v>
       </c>
@@ -26565,7 +26566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>146</v>
       </c>
@@ -26622,12 +26623,12 @@
         <v>3.7561685891908114</v>
       </c>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>6</v>
       </c>
@@ -26668,7 +26669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>139</v>
       </c>
@@ -26725,12 +26726,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>6</v>
       </c>
@@ -26771,7 +26772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>139</v>
       </c>
@@ -26828,12 +26829,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>6</v>
       </c>
@@ -26874,7 +26875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>138</v>
       </c>
@@ -26931,12 +26932,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>6</v>
       </c>
@@ -26977,7 +26978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>138</v>
       </c>
@@ -27034,12 +27035,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>149</v>
       </c>
@@ -27083,7 +27084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -27140,7 +27141,7 @@
         <v>-2552.7750000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>1</v>
       </c>
@@ -27197,7 +27198,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>2</v>
       </c>
@@ -27254,7 +27255,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>3</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>4</v>
       </c>
@@ -27368,7 +27369,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>5</v>
       </c>
@@ -27425,7 +27426,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>149</v>
       </c>
@@ -27482,7 +27483,7 @@
         <v>2532.1953496558967</v>
       </c>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>151</v>
       </c>
@@ -27539,12 +27540,12 @@
         <v>0.36187950910258171</v>
       </c>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>149</v>
       </c>
@@ -27588,7 +27589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>150</v>
       </c>
@@ -27645,7 +27646,7 @@
         <v>-4130.7</v>
       </c>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>1</v>
       </c>
@@ -27702,7 +27703,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>2</v>
       </c>
@@ -27759,7 +27760,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>3</v>
       </c>
@@ -27816,7 +27817,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>4</v>
       </c>
@@ -27873,7 +27874,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="97" spans="3:16">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>5</v>
       </c>
@@ -27930,7 +27931,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="98" spans="3:16">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>6</v>
       </c>
@@ -27987,7 +27988,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="99" spans="3:16">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>7</v>
       </c>
@@ -28044,7 +28045,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="100" spans="3:16">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>8</v>
       </c>
@@ -28101,7 +28102,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="101" spans="3:16">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>9</v>
       </c>
@@ -28158,7 +28159,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="102" spans="3:16">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>10</v>
       </c>
@@ -28215,7 +28216,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="103" spans="3:16">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>149</v>
       </c>
@@ -28272,7 +28273,7 @@
         <v>5017.2393706052471</v>
       </c>
     </row>
-    <row r="104" spans="3:16">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>151</v>
       </c>
@@ -28329,7 +28330,7 @@
         <v>0.25788528157737867</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>30</v>
       </c>
@@ -28337,7 +28338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>0</v>
       </c>
@@ -28350,7 +28351,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>1</v>
       </c>
@@ -28363,7 +28364,7 @@
         <v>0.92463716756132031</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>2</v>
       </c>
@@ -28376,7 +28377,7 @@
         <v>1.0555067210423852</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>3</v>
       </c>
@@ -28389,7 +28390,7 @@
         <v>1.2636901166456225</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>4</v>
       </c>
@@ -28402,7 +28403,7 @@
         <v>1.5349999999999997</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>5</v>
       </c>
@@ -28415,7 +28416,7 @@
         <v>1.8509470509156976</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>6</v>
       </c>
@@ -28428,7 +28429,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121">
         <v>7</v>
       </c>
@@ -28441,7 +28442,7 @@
         <v>2.5290529490843019</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>8</v>
       </c>
@@ -28454,7 +28455,7 @@
         <v>2.8449999999999998</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>9</v>
       </c>
@@ -28467,7 +28468,7 @@
         <v>3.1163098833543774</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>10</v>
       </c>
@@ -28480,7 +28481,7 @@
         <v>3.3244932789576147</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C125">
         <v>11</v>
       </c>
@@ -28493,7 +28494,7 @@
         <v>3.4553628324386794</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>12</v>
       </c>
@@ -28506,7 +28507,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>13</v>
       </c>
@@ -28519,7 +28520,7 @@
         <v>3.4553628324386798</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>14</v>
       </c>
@@ -28532,7 +28533,7 @@
         <v>3.3244932789576147</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>15</v>
       </c>
@@ -28545,7 +28546,7 @@
         <v>3.1163098833543779</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>16</v>
       </c>
@@ -28558,7 +28559,7 @@
         <v>2.8450000000000006</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>17</v>
       </c>
@@ -28571,7 +28572,7 @@
         <v>2.5290529490843032</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>18</v>
       </c>
@@ -28584,7 +28585,7 @@
         <v>2.1900000000000004</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>19</v>
       </c>
@@ -28597,7 +28598,7 @@
         <v>1.8509470509156984</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>20</v>
       </c>
@@ -28610,7 +28611,7 @@
         <v>1.5350000000000008</v>
       </c>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>21</v>
       </c>
@@ -28623,7 +28624,7 @@
         <v>1.2636901166456229</v>
       </c>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>22</v>
       </c>
@@ -28636,7 +28637,7 @@
         <v>1.0555067210423856</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C137">
         <v>23</v>
       </c>
@@ -28649,7 +28650,7 @@
         <v>0.92463716756132075</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>24</v>
       </c>
